--- a/data/trans_orig/P21D_1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_1_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D884D8A5-4643-462E-975D-9F59D7AAAC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8366A890-7AD0-4AA6-8C55-7B87FC2D009F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{340FB937-D6BD-458D-B448-9A01C35E448C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F38B0477-0166-48BD-B0D3-C26DBE06D69B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -218,7 +218,7 @@
     <t>0,46%</t>
   </si>
   <si>
-    <t>1,48%</t>
+    <t>1,67%</t>
   </si>
   <si>
     <t>0,24%</t>
@@ -233,7 +233,7 @@
     <t>99,54%</t>
   </si>
   <si>
-    <t>98,52%</t>
+    <t>98,33%</t>
   </si>
   <si>
     <t>99,76%</t>
@@ -263,7 +263,7 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,33%</t>
+    <t>0,31%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -278,7 +278,7 @@
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,67%</t>
+    <t>99,69%</t>
   </si>
   <si>
     <t>99,95%</t>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733F5A25-ADD0-4FC8-8EEB-56E69B28AF2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332236E9-38C4-4A8D-B1DE-CE21BD957AB0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_1_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8366A890-7AD0-4AA6-8C55-7B87FC2D009F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57DFBDC5-82EE-4F93-BD10-43E8B92E59A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F38B0477-0166-48BD-B0D3-C26DBE06D69B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83E38329-C98A-44E5-9FA5-C7B0194B92A6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332236E9-38C4-4A8D-B1DE-CE21BD957AB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9C14B1-08BD-4AFE-AC9D-EBB03C51CC99}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_1_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57DFBDC5-82EE-4F93-BD10-43E8B92E59A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45C52BE5-9601-45B5-A221-2BB243324681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83E38329-C98A-44E5-9FA5-C7B0194B92A6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6317C7E2-C957-45EF-98A4-169885E5A4FD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -218,7 +218,7 @@
     <t>0,46%</t>
   </si>
   <si>
-    <t>1,67%</t>
+    <t>1,48%</t>
   </si>
   <si>
     <t>0,24%</t>
@@ -233,7 +233,7 @@
     <t>99,54%</t>
   </si>
   <si>
-    <t>98,33%</t>
+    <t>98,52%</t>
   </si>
   <si>
     <t>99,76%</t>
@@ -263,7 +263,7 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,31%</t>
+    <t>0,33%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -278,7 +278,7 @@
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,69%</t>
+    <t>99,67%</t>
   </si>
   <si>
     <t>99,95%</t>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9C14B1-08BD-4AFE-AC9D-EBB03C51CC99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0F7937-C6D1-4EF3-862B-49B5968E1102}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_1_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_1_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45C52BE5-9601-45B5-A221-2BB243324681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3518277-33B4-4F5A-87F0-52FC1DCC7C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6317C7E2-C957-45EF-98A4-169885E5A4FD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C3502159-C1C2-4809-BA33-92EE182CD0AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="80">
   <si>
     <t>Población que, necesitando atención sanitaria médica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
@@ -218,13 +218,10 @@
     <t>0,46%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
   </si>
   <si>
     <t>99,33%</t>
@@ -233,13 +230,10 @@
     <t>99,54%</t>
   </si>
   <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -248,25 +242,19 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>99,77%</t>
-  </si>
-  <si>
     <t>0,13%</t>
   </si>
   <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>0,17%</t>
@@ -278,10 +266,10 @@
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -699,7 +687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0F7937-C6D1-4EF3-862B-49B5968E1102}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42FCC45-0AA8-44CF-9E53-91C5EDC84E60}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -871,7 +859,7 @@
         <v>153</v>
       </c>
       <c r="D5" s="7">
-        <v>125492</v>
+        <v>154266</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -886,7 +874,7 @@
         <v>233</v>
       </c>
       <c r="I5" s="7">
-        <v>117523</v>
+        <v>126317</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -901,7 +889,7 @@
         <v>386</v>
       </c>
       <c r="N5" s="7">
-        <v>243015</v>
+        <v>280583</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -922,7 +910,7 @@
         <v>153</v>
       </c>
       <c r="D6" s="7">
-        <v>125492</v>
+        <v>154266</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -937,7 +925,7 @@
         <v>233</v>
       </c>
       <c r="I6" s="7">
-        <v>117523</v>
+        <v>126317</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -952,7 +940,7 @@
         <v>386</v>
       </c>
       <c r="N6" s="7">
-        <v>243015</v>
+        <v>280583</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1041,7 +1029,7 @@
         <v>326</v>
       </c>
       <c r="I8" s="7">
-        <v>255215</v>
+        <v>237281</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -1056,7 +1044,7 @@
         <v>486</v>
       </c>
       <c r="N8" s="7">
-        <v>466488</v>
+        <v>448554</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -1092,7 +1080,7 @@
         <v>326</v>
       </c>
       <c r="I9" s="7">
-        <v>255215</v>
+        <v>237281</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1107,7 +1095,7 @@
         <v>486</v>
       </c>
       <c r="N9" s="7">
-        <v>466488</v>
+        <v>448554</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1181,7 +1169,7 @@
         <v>113</v>
       </c>
       <c r="D11" s="7">
-        <v>97664</v>
+        <v>94912</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1196,7 +1184,7 @@
         <v>223</v>
       </c>
       <c r="I11" s="7">
-        <v>155266</v>
+        <v>145541</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -1211,7 +1199,7 @@
         <v>336</v>
       </c>
       <c r="N11" s="7">
-        <v>252930</v>
+        <v>240453</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -1232,7 +1220,7 @@
         <v>113</v>
       </c>
       <c r="D12" s="7">
-        <v>97664</v>
+        <v>94912</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1247,7 +1235,7 @@
         <v>223</v>
       </c>
       <c r="I12" s="7">
-        <v>155266</v>
+        <v>145541</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1262,7 +1250,7 @@
         <v>336</v>
       </c>
       <c r="N12" s="7">
-        <v>252930</v>
+        <v>240453</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1336,7 +1324,7 @@
         <v>131</v>
       </c>
       <c r="D14" s="7">
-        <v>147150</v>
+        <v>141377</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1351,7 +1339,7 @@
         <v>278</v>
       </c>
       <c r="I14" s="7">
-        <v>207161</v>
+        <v>246560</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -1366,7 +1354,7 @@
         <v>409</v>
       </c>
       <c r="N14" s="7">
-        <v>354311</v>
+        <v>387937</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1387,7 +1375,7 @@
         <v>131</v>
       </c>
       <c r="D15" s="7">
-        <v>147150</v>
+        <v>141377</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1402,7 +1390,7 @@
         <v>278</v>
       </c>
       <c r="I15" s="7">
-        <v>207161</v>
+        <v>246560</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1417,7 +1405,7 @@
         <v>409</v>
       </c>
       <c r="N15" s="7">
-        <v>354311</v>
+        <v>387937</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1491,7 +1479,7 @@
         <v>108</v>
       </c>
       <c r="D17" s="7">
-        <v>78042</v>
+        <v>70704</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -1506,7 +1494,7 @@
         <v>163</v>
       </c>
       <c r="I17" s="7">
-        <v>79356</v>
+        <v>71362</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
@@ -1521,7 +1509,7 @@
         <v>271</v>
       </c>
       <c r="N17" s="7">
-        <v>157398</v>
+        <v>142066</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
@@ -1542,7 +1530,7 @@
         <v>108</v>
       </c>
       <c r="D18" s="7">
-        <v>78042</v>
+        <v>70704</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1557,7 +1545,7 @@
         <v>163</v>
       </c>
       <c r="I18" s="7">
-        <v>79356</v>
+        <v>71362</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1572,7 +1560,7 @@
         <v>271</v>
       </c>
       <c r="N18" s="7">
-        <v>157398</v>
+        <v>142066</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1646,7 +1634,7 @@
         <v>177</v>
       </c>
       <c r="D20" s="7">
-        <v>130109</v>
+        <v>125594</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -1661,7 +1649,7 @@
         <v>200</v>
       </c>
       <c r="I20" s="7">
-        <v>119410</v>
+        <v>110952</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
@@ -1676,7 +1664,7 @@
         <v>377</v>
       </c>
       <c r="N20" s="7">
-        <v>249518</v>
+        <v>236546</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -1697,7 +1685,7 @@
         <v>177</v>
       </c>
       <c r="D21" s="7">
-        <v>130109</v>
+        <v>125594</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -1712,7 +1700,7 @@
         <v>200</v>
       </c>
       <c r="I21" s="7">
-        <v>119410</v>
+        <v>110952</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -1727,7 +1715,7 @@
         <v>377</v>
       </c>
       <c r="N21" s="7">
-        <v>249518</v>
+        <v>236546</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -1765,7 +1753,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>1523</v>
+        <v>1400</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>59</v>
@@ -1774,22 +1762,22 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>1523</v>
+        <v>1400</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1801,13 +1789,13 @@
         <v>285</v>
       </c>
       <c r="D23" s="7">
-        <v>312072</v>
+        <v>311736</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -1816,13 +1804,13 @@
         <v>434</v>
       </c>
       <c r="I23" s="7">
-        <v>326968</v>
+        <v>305454</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>17</v>
@@ -1831,13 +1819,13 @@
         <v>719</v>
       </c>
       <c r="N23" s="7">
-        <v>639040</v>
+        <v>617190</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>17</v>
@@ -1852,7 +1840,7 @@
         <v>285</v>
       </c>
       <c r="D24" s="7">
-        <v>312072</v>
+        <v>311736</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -1867,7 +1855,7 @@
         <v>436</v>
       </c>
       <c r="I24" s="7">
-        <v>328491</v>
+        <v>306854</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -1882,7 +1870,7 @@
         <v>721</v>
       </c>
       <c r="N24" s="7">
-        <v>640563</v>
+        <v>618590</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -1896,7 +1884,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -1929,7 +1917,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -1944,7 +1932,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,7 +1944,7 @@
         <v>333</v>
       </c>
       <c r="D26" s="7">
-        <v>416730</v>
+        <v>553916</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>17</v>
@@ -1971,13 +1959,13 @@
         <v>517</v>
       </c>
       <c r="I26" s="7">
-        <v>422264</v>
+        <v>349107</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -1986,13 +1974,13 @@
         <v>850</v>
       </c>
       <c r="N26" s="7">
-        <v>838994</v>
+        <v>903023</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>19</v>
@@ -2007,7 +1995,7 @@
         <v>333</v>
       </c>
       <c r="D27" s="7">
-        <v>416730</v>
+        <v>553916</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -2022,7 +2010,7 @@
         <v>517</v>
       </c>
       <c r="I27" s="7">
-        <v>422264</v>
+        <v>349107</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -2037,7 +2025,7 @@
         <v>850</v>
       </c>
       <c r="N27" s="7">
-        <v>838994</v>
+        <v>903023</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -2069,37 +2057,37 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>1523</v>
+        <v>1400</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
       </c>
       <c r="N28" s="7">
-        <v>1523</v>
+        <v>1400</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,13 +2099,13 @@
         <v>1460</v>
       </c>
       <c r="D29" s="7">
-        <v>1518531</v>
+        <v>1663778</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>19</v>
@@ -2126,13 +2114,13 @@
         <v>2374</v>
       </c>
       <c r="I29" s="7">
-        <v>1683164</v>
+        <v>1592574</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>17</v>
@@ -2141,13 +2129,13 @@
         <v>3834</v>
       </c>
       <c r="N29" s="7">
-        <v>3201695</v>
+        <v>3256352</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>17</v>
@@ -2162,7 +2150,7 @@
         <v>1460</v>
       </c>
       <c r="D30" s="7">
-        <v>1518531</v>
+        <v>1663778</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -2177,7 +2165,7 @@
         <v>2376</v>
       </c>
       <c r="I30" s="7">
-        <v>1684687</v>
+        <v>1593974</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -2192,7 +2180,7 @@
         <v>3836</v>
       </c>
       <c r="N30" s="7">
-        <v>3203218</v>
+        <v>3257752</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -2206,7 +2194,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
